--- a/slice_copy/results.xlsx
+++ b/slice_copy/results.xlsx
@@ -29,9 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>10*1</t>
-  </si>
-  <si>
     <t>withLoop</t>
   </si>
   <si>
@@ -41,28 +38,31 @@
     <t>withAppend</t>
   </si>
   <si>
-    <t>10*2</t>
+    <t>Slice Size</t>
   </si>
   <si>
-    <t>10*3</t>
+    <t>10**1</t>
   </si>
   <si>
-    <t>10*4</t>
+    <t>10**2</t>
   </si>
   <si>
-    <t>10*5</t>
+    <t>10**3</t>
   </si>
   <si>
-    <t>10*6</t>
+    <t>10**4</t>
   </si>
   <si>
-    <t>10*7</t>
+    <t>10**5</t>
   </si>
   <si>
-    <t>10*8</t>
+    <t>10**7</t>
   </si>
   <si>
-    <t>Slice Size</t>
+    <t>10**6</t>
+  </si>
+  <si>
+    <t>10**8</t>
   </si>
 </sst>
 </file>
@@ -144,12 +144,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -207,7 +208,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Benchmark Results of Copying slices</a:t>
+              <a:t>Benchmark Results of Copying Slices</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -292,28 +293,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10*1</c:v>
+                  <c:v>10**1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10*2</c:v>
+                  <c:v>10**2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10*3</c:v>
+                  <c:v>10**3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10*4</c:v>
+                  <c:v>10**4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10*5</c:v>
+                  <c:v>10**5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10*6</c:v>
+                  <c:v>10**6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10*7</c:v>
+                  <c:v>10**7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10*8</c:v>
+                  <c:v>10**8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -391,28 +392,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10*1</c:v>
+                  <c:v>10**1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10*2</c:v>
+                  <c:v>10**2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10*3</c:v>
+                  <c:v>10**3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10*4</c:v>
+                  <c:v>10**4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10*5</c:v>
+                  <c:v>10**5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10*6</c:v>
+                  <c:v>10**6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10*7</c:v>
+                  <c:v>10**7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10*8</c:v>
+                  <c:v>10**8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -490,28 +491,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10*1</c:v>
+                  <c:v>10**1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10*2</c:v>
+                  <c:v>10**2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10*3</c:v>
+                  <c:v>10**3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10*4</c:v>
+                  <c:v>10**4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10*5</c:v>
+                  <c:v>10**5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10*6</c:v>
+                  <c:v>10**6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10*7</c:v>
+                  <c:v>10**7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10*8</c:v>
+                  <c:v>10**8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -560,11 +561,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="637190512"/>
-        <c:axId val="637192288"/>
+        <c:axId val="632234208"/>
+        <c:axId val="631405920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="637190512"/>
+        <c:axId val="632234208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637192288"/>
+        <c:crossAx val="631405920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -668,7 +669,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="637192288"/>
+        <c:axId val="631405920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,7 +772,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637190512"/>
+        <c:crossAx val="632234208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1709,21 +1710,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+      <c r="A2" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>38</v>
@@ -1736,8 +1737,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
+      <c r="A3" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>179</v>
@@ -1750,8 +1751,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
+      <c r="A4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>1452</v>
@@ -1764,8 +1765,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
+      <c r="A5" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>10507</v>
@@ -1778,8 +1779,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
+      <c r="A6" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>110424</v>
@@ -1792,8 +1793,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
+      <c r="A7" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>1074627</v>
@@ -1806,7 +1807,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1">
@@ -1820,8 +1821,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
+      <c r="A9" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>122678266</v>
